--- a/TimeSheet_template.xlsx
+++ b/TimeSheet_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE8F47-7FED-46CB-8B5C-0D1FDBCB0E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FFB12A-7BD3-4F01-96CA-A8E29290943E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="1520" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1140" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,7 +450,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>45153</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
